--- a/data/long_dif/P16-Estudios-long_dif.xlsx
+++ b/data/long_dif/P16-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,62; 42,24</t>
+          <t>9,19; 24,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 39,95</t>
+          <t>18,06; 50,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,17; 34,22</t>
+          <t>20,1; 33,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,62; 29,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 35,05</t>
+          <t>11,63; 26,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 15,91</t>
+          <t>14,09; 29,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,23; 32,19</t>
+          <t>8,34; 16,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,46; 33,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,09; 22,7</t>
+          <t>12,51; 23,65</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 35,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15,42; 23,04</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,91%</t>
+          <t>46,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>51,88%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>57,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,51%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>64,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>57,15%</t>
+          <t>59,33%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51,27%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59,53%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,76; 61,19</t>
+          <t>50,2; 73,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,48; 62,47</t>
+          <t>31,7; 56,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,33; 60,91</t>
+          <t>45,87; 63,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,24; 58,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,96; 58,19</t>
+          <t>47,83; 66,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,56; 67,45</t>
+          <t>46,26; 62,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,9; 57,62</t>
+          <t>58,34; 70,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,98; 58,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,45; 62,39</t>
+          <t>51,55; 67,44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43,47; 58,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54,69; 64,3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24,26%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,14; 32,72</t>
+          <t>13,54; 33,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 32,98</t>
+          <t>15,99; 33,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 27,9</t>
+          <t>14,1; 26,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,58; 32,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,7; 32,51</t>
+          <t>16,66; 33,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,56; 37,23</t>
+          <t>17,87; 31,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,83; 30,28</t>
+          <t>18,01; 28,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,25; 30,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,68; 30,03</t>
+          <t>17,39; 30,09</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,93; 30,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 25,81</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,69; 24,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,66; 29,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 22,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,79; 27,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 21,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,44; 24,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,79; 23,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 21,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>55,39%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>57,45%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>52,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>57,33%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,16%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,28%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>56,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>56,34%</t>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,11; 59,62</t>
+          <t>14,79; 31,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,65; 61,21</t>
+          <t>18,02; 29,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,85; 62,54</t>
+          <t>14,08; 22,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,0; 57,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,19; 62,09</t>
+          <t>18,44; 29,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,64; 59,36</t>
+          <t>11,69; 21,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,53; 56,78</t>
+          <t>15,84; 23,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52,65; 59,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,07; 60,21</t>
+          <t>18,2; 27,47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,2; 23,69</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 21,38</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>55,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>57,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>55,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>53,44%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>56,26%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56,53%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,55; 33,67</t>
+          <t>47,41; 62,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,98; 25,98</t>
+          <t>48,83; 62,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,02; 29,2</t>
+          <t>51,85; 62,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,1; 28,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,45; 30,62</t>
+          <t>45,44; 57,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,06; 29,24</t>
+          <t>51,14; 62,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,68; 29,38</t>
+          <t>50,71; 59,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,88; 26,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,82; 28,07</t>
+          <t>48,56; 57,58</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>51,81; 60,39</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>52,92; 60,18</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>24,56%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,73; 24,58</t>
+          <t>18,84; 29,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,79; 29,13</t>
+          <t>16,46; 28,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,48; 20,82</t>
+          <t>20,42; 29,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,59; 26,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,66; 19,41</t>
+          <t>19,82; 32,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,52; 24,16</t>
+          <t>22,72; 32,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,27; 23,36</t>
+          <t>21,77; 29,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,91; 22,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,16; 20,95</t>
+          <t>20,7; 28,62</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20,64; 28,77</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>22,08; 28,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>53,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>59,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>57,43%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>52,4; 65,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>45,43; 58,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>55,29; 66,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>53,97; 64,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>48,04; 58,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,92; 58,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>55,31; 63,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,28; 57,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>53,74; 60,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>21,2%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,36; 29,39</t>
+          <t>13,8; 25,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,79; 31,59</t>
+          <t>14,59; 24,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,63; 27,7</t>
+          <t>11,58; 21,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,07; 23,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,68; 36,3</t>
+          <t>17,87; 28,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,09; 30,56</t>
+          <t>11,23; 19,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,57; 24,51</t>
+          <t>15,96; 23,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,36; 32,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,85; 27,93</t>
+          <t>17,75; 25,08</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>13,89; 20,59</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15,21; 21,43</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>58,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>56,14%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>59,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>53,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>53,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>58,85%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>54,94%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>57,32%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>17,51; 24,94</t>
+          <t>50,33; 66,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,81; 28,34</t>
+          <t>48,81; 62,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,62; 22,28</t>
+          <t>55,68; 66,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,3</t>
+          <t>53,17; 65,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>15,75; 20,23</t>
+          <t>48,43; 59,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,41; 24,3</t>
+          <t>48,27; 58,03</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,69; 23,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,85; 20,36</t>
+          <t>54,13; 63,39</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>50,58; 59,32</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>53,58; 61,07</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>57,51%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>56,24%</t>
+          <t>31,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>54,49%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>54,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>19,94%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>27,94%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>24,68%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>50,22; 58,53</t>
+          <t>15,57; 30,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>48,82; 57,56</t>
+          <t>18,56; 31,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>54,07; 60,98</t>
+          <t>18,62; 27,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>51,46; 57,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>51,3; 58,12</t>
+          <t>13,73; 23,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>53,07; 59,17</t>
+          <t>26,25; 36,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>51,79; 56,84</t>
+          <t>22,52; 31,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>51,25; 56,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>54,6; 59,23</t>
+          <t>15,93; 24,28</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>24,12; 32,01</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 27,76</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>19,51; 26,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>20,5; 26,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,43; 30,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,33; 29,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>21,75; 26,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>22,79; 27,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,82; 26,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>20,6%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>20,59%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>21,76%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>16,28; 25,15</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>21,56; 38,13</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>19,34; 27,68</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>14,51; 27,34</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>18,67; 24,97</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>20,08; 30,13</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>52,65%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>50,14%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>52,42%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>52,42%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>52,54%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>51,21%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>46,72; 58,86</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>41,02; 59,58</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>47,07; 57,42</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>44,16; 60,13</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>48,79; 56,48</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>45,41; 57,02</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>27,0%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>25,71%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 32,43</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>14,34; 27,63</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 29,05</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 34,21</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>22,51; 29,19</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>19,33; 28,71</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>19,79%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>24,27%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>22,61%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>17,85%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>16,95; 23,44</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>20,76; 28,8</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>16,62; 22,03</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 25,12</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>14,73; 19,99</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>15,69; 20,15</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 23,47</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>18,59; 23,13</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 20,35</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>55,58%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>53,37%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>57,85%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>54,14%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>54,98%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>57,06%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>54,84%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>54,19%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>57,45%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>51,75; 59,42</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>49,39; 57,64</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>54,21; 61,33</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>51,15; 57,18</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>51,41; 58,39</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>54,32; 59,86</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>52,26; 57,23</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>51,77; 56,88</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>55,14; 59,79</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>23,09%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>23,26%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>27,81%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>25,09%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>25,13%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>24,1%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>21,5; 28,05</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>18,99; 26,22</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>20,31; 25,74</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>20,74; 26,14</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>24,74; 30,68</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 27,6</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>21,89; 26,15</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>22,95; 27,51</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>22,12; 26,14</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
